--- a/suivi-fe/backend/templates/alerte-qualite-template.xlsx
+++ b/suivi-fe/backend/templates/alerte-qualite-template.xlsx
@@ -1,23 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abdel\Desktop\KEP\suivie-FE\suivi-fe\backend\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://metallumindustries-my.sharepoint.com/personal/abdelhak_es-shih_kepmetal_com/Documents/Bureau/App/Clinique/suivi-fe/backend/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5453063C-D654-490B-A3C6-5059B6C0AF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="8_{5453063C-D654-490B-A3C6-5059B6C0AF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C7776C0-BF89-4983-989A-DFF95DF10AB0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{01794508-F5CD-4F9C-883F-972930678916}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{01794508-F5CD-4F9C-883F-972930678916}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
+  <definedNames>
+    <definedName name="AQ_CLIENT">Feuil1!$C$7</definedName>
+    <definedName name="AQ_DATE_DETECTION">Feuil1!$C$19</definedName>
+    <definedName name="AQ_DESCRIPTION">Feuil1!$C$22</definedName>
+    <definedName name="AQ_DESIGNATION">Feuil1!$C$13</definedName>
+    <definedName name="AQ_IMAGE">Feuil1!$A$27</definedName>
+    <definedName name="AQ_LANCEMENT">Feuil1!$C$9</definedName>
+    <definedName name="AQ_LIEU_DETECTION">Feuil1!$C$17</definedName>
+    <definedName name="AQ_NUM_FE">Feuil1!$B$5</definedName>
+    <definedName name="AQ_QTE_NC">Feuil1!$C$15</definedName>
+    <definedName name="AQ_REF">Feuil1!$C$11</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">Réf NC : </t>
   </si>
@@ -92,6 +101,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALERTE QUALITE </t>
   </si>
 </sst>
 </file>
@@ -165,20 +177,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Aptos Narrow"/>
+      <b/>
+      <sz val="28"/>
+      <color theme="0"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="28"/>
+      <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,6 +202,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC40000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,10 +304,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -298,79 +360,32 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -397,111 +412,16 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>409576</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>26670</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>485776</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Rectangle 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E28C0C95-5ACE-4A54-A5E3-E6981D52E221}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C2B09778-3F87-45FB-A16A-B6BA0C306C99}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="409576" y="0"/>
-          <a:ext cx="3886200" cy="581025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="C40000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="115000"/>
-            </a:lnSpc>
-            <a:spcAft>
-              <a:spcPts val="1000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="2800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>ALERTE QUALITE</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="1">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>593725</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>29845</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>193675</xdr:rowOff>
     </xdr:to>
@@ -529,8 +449,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4400550" y="0"/>
-          <a:ext cx="765175" cy="1298575"/>
+          <a:off x="4781550" y="0"/>
+          <a:ext cx="795655" cy="1268095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -559,7 +479,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>611781</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>140997</xdr:rowOff>
+      <xdr:rowOff>135282</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -602,90 +522,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="FS - Typologies défauts (3)"/>
-      <sheetName val="FS - Typologies défauts (2)"/>
-      <sheetName val="FS - FNC Typo défaut par client"/>
-      <sheetName val="FS - Typologies défauts"/>
-      <sheetName val="FS - Récurrences v3"/>
-      <sheetName val="FS - Récurrences v2"/>
-      <sheetName val="FS - Récurrences v1"/>
-      <sheetName val="FS - Détail FNC 141"/>
-      <sheetName val="FS - Indic Tps diff FNC aux Frs"/>
-      <sheetName val="FS - CLIENT"/>
-      <sheetName val="FS - FNC"/>
-      <sheetName val="ANALYSE CLIENT"/>
-      <sheetName val="FS - Typologies défauts (4)"/>
-      <sheetName val="Suivi des RNC QRQC"/>
-      <sheetName val="Contact qualité frs"/>
-      <sheetName val="FS - 1. Répart° NC (Clt-Int)"/>
-      <sheetName val="SUIVI NC FRS"/>
-      <sheetName val="FS - 2. Origine Frs"/>
-      <sheetName val="DATA"/>
-      <sheetName val="REFERENCE - Typologie défauts"/>
-      <sheetName val="ALERTE QUALITE"/>
-      <sheetName val="liste des codes clients"/>
-      <sheetName val="A3-DMAIC (2)"/>
-      <sheetName val="NBL - Essai tableau de bord"/>
-      <sheetName val="Nb NC ouvertes"/>
-      <sheetName val="A3-DMAIC"/>
-      <sheetName val="Feuil7"/>
-      <sheetName val="Analyse Fournisseur"/>
-      <sheetName val="193 CLIENT"/>
-      <sheetName val="193 INTERNE"/>
-      <sheetName val="liste outil"/>
-      <sheetName val="Feuil2"/>
-      <sheetName val="Feuil4"/>
-      <sheetName val="Feuil5"/>
-      <sheetName val="Feuil6"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1007,433 +843,428 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{661DB0D5-A850-42F3-A47F-8C39580F6AC7}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="32" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-    </row>
-    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.5">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="1:7" ht="27.6" x14ac:dyDescent="0.65">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.5">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+    </row>
+    <row r="13" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+    </row>
+    <row r="15" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="B15" s="13"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
       <c r="H20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="e">
-        <f>VLOOKUP($C$5,[1]!Tableau1[#Data],20,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="19"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="21"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="21"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="23"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="21"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="21"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="23"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="21"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="21"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="21"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="23"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="24"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="23"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="23"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="24"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="26"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="27"/>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="28"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="30"/>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:8" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+    </row>
+    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+    </row>
+    <row r="27" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="5"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="5"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="5"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="5"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="5"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="8"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="10"/>
+    </row>
+    <row r="44" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A6:G6"/>
+  <mergeCells count="29">
     <mergeCell ref="A1:G4"/>
     <mergeCell ref="A23:G26"/>
     <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A5:G5"/>
     <mergeCell ref="A20:G20"/>
     <mergeCell ref="A18:G18"/>
     <mergeCell ref="A16:G16"/>
@@ -1443,19 +1274,26 @@
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:G19"/>
-    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="B5:G5"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:G13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A27:G43"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="A22:B22"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:G9"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>